--- a/docs/StructureDefinition-BREstrategiaVacinacaoPesquisa-1.0.xlsx
+++ b/docs/StructureDefinition-BREstrategiaVacinacaoPesquisa-1.0.xlsx
@@ -765,42 +765,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="14.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="21.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="14.03125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="20.76171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="17.05078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="16.9453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
